--- a/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_3_R-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3759</v>
+        <v>3800</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002591220756922153</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01304753710756009</v>
+        <v>0.01318875051269238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4133</v>
+        <v>4288</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001219355644241497</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006750281372545711</v>
+        <v>0.007003786640381651</v>
       </c>
     </row>
     <row r="5">
@@ -804,16 +804,16 @@
         <v>287376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284364</v>
+        <v>284323</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>288123</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.997408779243078</v>
+        <v>0.9974087792430778</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9869524628924402</v>
+        <v>0.9868112494873075</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>611536</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>608150</v>
+        <v>607995</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>612283</v>
@@ -847,7 +847,7 @@
         <v>0.9987806443557585</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9932497186274543</v>
+        <v>0.9929962133596185</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4970</v>
+        <v>3731</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.001488204915043586</v>
+        <v>0.001488204915043585</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009872884554700128</v>
+        <v>0.007411089628773515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3791</v>
+        <v>4222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0007694655370961412</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003894079418799279</v>
+        <v>0.004336923710396979</v>
       </c>
     </row>
     <row r="8">
@@ -1018,16 +1018,16 @@
         <v>502645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>498424</v>
+        <v>499663</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>503394</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9985117950849566</v>
+        <v>0.9985117950849564</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9901271154453007</v>
+        <v>0.9925889103712265</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>972852</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>969810</v>
+        <v>969379</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>973601</v>
@@ -1048,7 +1048,7 @@
         <v>0.9992305344629038</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9961059205812007</v>
+        <v>0.9956630762896045</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1328,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4990</v>
+        <v>4353</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.002575111347581026</v>
+        <v>0.002575111347581027</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01016899715927405</v>
+        <v>0.008871188013475018</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4543</v>
+        <v>5057</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001367496414363079</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004916182808880613</v>
+        <v>0.005472900838497957</v>
       </c>
     </row>
     <row r="14">
@@ -1388,16 +1388,16 @@
         <v>489470</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>485744</v>
+        <v>486381</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>490734</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.997424888652419</v>
+        <v>0.9974248886524191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9898310028407263</v>
+        <v>0.991128811986524</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1409,16 +1409,16 @@
         <v>922829</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>919550</v>
+        <v>919036</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>924093</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9986325035856369</v>
+        <v>0.9986325035856368</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9950838171911195</v>
+        <v>0.9945270991615019</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0004760587750344625</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1534,19 +1534,19 @@
         <v>2013</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001186165451155017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1558,16 +1558,16 @@
         <v>743</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0008451025912070222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="17">
@@ -1584,7 +1584,7 @@
         <v>1567527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1564544</v>
+        <v>1564495</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>1568274</v>
@@ -1593,7 +1593,7 @@
         <v>0.9995239412249656</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9976213232544749</v>
+        <v>0.997590127245104</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1605,19 +1605,19 @@
         <v>1694923</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1691386</v>
+        <v>1691526</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1696379</v>
+        <v>1696374</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9988138345488449</v>
+        <v>0.9988138345488451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9967292239251017</v>
+        <v>0.9968119769439031</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9996719613770162</v>
+        <v>0.9996690188545363</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3832</v>
@@ -1626,7 +1626,7 @@
         <v>3262451</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3258305</v>
+        <v>3258759</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>3264467</v>
@@ -1635,10 +1635,10 @@
         <v>0.9991548974087929</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9978851343208828</v>
+        <v>0.9980243368092431</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9997725824109049</v>
+        <v>0.9997725529568107</v>
       </c>
     </row>
     <row r="18">
